--- a/Week One/Personal Budget Tracker.xlsx
+++ b/Week One/Personal Budget Tracker.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffa828adb55a9dfa/Documents/GitHub/Poke-Mart-Excel/Week One/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="8_{2CB42F3A-E4C3-4A40-9621-7C834FA329B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DCF9869-6ABD-4578-B686-6AADD6F40916}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F069283-AE07-4AE3-AEE0-E23C96A052ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="15700" xr2:uid="{C4B9989F-F837-428C-88A5-EBC0843650BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2022 Budget" sheetId="1" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
     <t>Mortgage</t>
   </si>
@@ -97,6 +98,9 @@
   <si>
     <t>Net Profit/Loss</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
@@ -144,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +167,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -178,14 +188,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -194,11 +203,16 @@
     <xf numFmtId="17" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -237,6 +251,4102 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>January 2022 Monthly Expenses </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2022 Budget'!$S$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jan-22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-974D-491C-9090-789DA160D5A4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-974D-491C-9090-789DA160D5A4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-974D-491C-9090-789DA160D5A4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-974D-491C-9090-789DA160D5A4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-974D-491C-9090-789DA160D5A4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-974D-491C-9090-789DA160D5A4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-974D-491C-9090-789DA160D5A4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-974D-491C-9090-789DA160D5A4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-974D-491C-9090-789DA160D5A4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-974D-491C-9090-789DA160D5A4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-974D-491C-9090-789DA160D5A4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-974D-491C-9090-789DA160D5A4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-974D-491C-9090-789DA160D5A4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2022 Budget'!$T$4:$AF$4</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Mortgage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Electricity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garbage</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Comcast</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Car</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pet Insurance</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Fidelity</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Student Loans</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Streaming</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Groceries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2022 Budget'!$T$5:$AF$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.49853372434017595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.466275659824047E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1730205278592375E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.398826979472141E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.398826979472141E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11730205278592376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2258064516129031E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7595307917888565E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0263929618768328E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.865102639296188E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.466275659824047E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-974D-491C-9090-789DA160D5A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>December 2022 Monthly Expenses </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2022 Budget'!$S$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dec-22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4CD4-4982-B6B0-D06DB14219C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4CD4-4982-B6B0-D06DB14219C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4CD4-4982-B6B0-D06DB14219C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4CD4-4982-B6B0-D06DB14219C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4CD4-4982-B6B0-D06DB14219C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-4CD4-4982-B6B0-D06DB14219C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-4CD4-4982-B6B0-D06DB14219C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-4CD4-4982-B6B0-D06DB14219C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-4CD4-4982-B6B0-D06DB14219C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-4CD4-4982-B6B0-D06DB14219C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-4CD4-4982-B6B0-D06DB14219C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-4CD4-4982-B6B0-D06DB14219C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-4CD4-4982-B6B0-D06DB14219C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2022 Budget'!$T$4:$AF$4</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Mortgage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Electricity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garbage</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Comcast</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Car</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pet Insurance</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Fidelity</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Student Loans</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Streaming</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Groceries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2022 Budget'!$T$16:$AF$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.49926578560939794</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7621145374449341E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3215859030837005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0279001468428781E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5800293685756244E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11747430249632893</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.405286343612335E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7621145374449341E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13656387665198239</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4684287812041116E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9368575624082231E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.405286343612335E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-4CD4-4982-B6B0-D06DB14219C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2022 Average Monthly Expenses</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2022 Budget'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7B60-47E5-8A57-A974141FB718}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7B60-47E5-8A57-A974141FB718}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7B60-47E5-8A57-A974141FB718}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7B60-47E5-8A57-A974141FB718}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7B60-47E5-8A57-A974141FB718}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7B60-47E5-8A57-A974141FB718}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-7B60-47E5-8A57-A974141FB718}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-7B60-47E5-8A57-A974141FB718}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-7B60-47E5-8A57-A974141FB718}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-7B60-47E5-8A57-A974141FB718}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-7B60-47E5-8A57-A974141FB718}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-7B60-47E5-8A57-A974141FB718}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-7B60-47E5-8A57-A974141FB718}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2022 Budget'!$B$4:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Mortgage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Electricity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garbage</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Comcast</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Car</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pet Insurance</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Fidelity</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Student Loans</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Streaming</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Groceries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2022 Budget'!$B$17:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.416666666666671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>166.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103.66666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-7B60-47E5-8A57-A974141FB718}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3861B3C1-3CD0-4AAA-9F41-45D524ECAC4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5E49AB-6D0C-4C6B-9C51-86AD7CC12C31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>251178</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB62B3C0-165F-8E05-D2B9-431A22A982B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,15 +4648,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8EB33E-45D8-4BBF-9045-A87713A5F042}">
   <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6328125" customWidth="1"/>
+    <col min="7" max="9" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.6328125" bestFit="1" customWidth="1"/>
@@ -556,138 +4668,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="46" x14ac:dyDescent="1">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="U1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="U1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
     </row>
     <row r="4" spans="1:36" ht="74.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Y4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AA4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AB4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AC4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AD4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AE4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AF4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>44562</v>
       </c>
       <c r="B5" s="1">
@@ -729,75 +4837,75 @@
       <c r="N5" s="1">
         <v>50</v>
       </c>
-      <c r="O5" s="3">
-        <f>SUM(B5:N5)</f>
+      <c r="O5" s="2">
+        <f t="shared" ref="O5:O16" si="0">SUM(B5:N5)</f>
         <v>3410</v>
       </c>
       <c r="P5" s="1">
         <v>4000</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <f>P5-O5</f>
         <v>590</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>44562</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="6">
         <f>B5/$O5</f>
         <v>0.49853372434017595</v>
       </c>
-      <c r="U5" s="8">
-        <f t="shared" ref="U5:AF16" si="0">C5/$O5</f>
+      <c r="U5" s="6">
+        <f t="shared" ref="U5:AF16" si="1">C5/$O5</f>
         <v>1.466275659824047E-2</v>
       </c>
-      <c r="V5" s="8">
-        <f t="shared" si="0"/>
+      <c r="V5" s="6">
+        <f t="shared" si="1"/>
         <v>1.1730205278592375E-2</v>
       </c>
-      <c r="W5" s="8">
-        <f t="shared" si="0"/>
+      <c r="W5" s="6">
+        <f t="shared" si="1"/>
         <v>4.398826979472141E-2</v>
       </c>
-      <c r="X5" s="8">
-        <f t="shared" si="0"/>
+      <c r="X5" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="8">
-        <f t="shared" si="0"/>
+      <c r="Y5" s="6">
+        <f t="shared" si="1"/>
         <v>4.398826979472141E-2</v>
       </c>
-      <c r="Z5" s="8">
-        <f t="shared" si="0"/>
+      <c r="Z5" s="6">
+        <f t="shared" si="1"/>
         <v>0.11730205278592376</v>
       </c>
-      <c r="AA5" s="8">
-        <f t="shared" si="0"/>
+      <c r="AA5" s="6">
+        <f t="shared" si="1"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="AB5" s="8">
-        <f t="shared" si="0"/>
+      <c r="AB5" s="6">
+        <f t="shared" si="1"/>
         <v>1.7595307917888565E-2</v>
       </c>
-      <c r="AC5" s="8">
-        <f t="shared" si="0"/>
+      <c r="AC5" s="6">
+        <f t="shared" si="1"/>
         <v>0.13636363636363635</v>
       </c>
-      <c r="AD5" s="8">
-        <f t="shared" si="0"/>
+      <c r="AD5" s="6">
+        <f t="shared" si="1"/>
         <v>1.0263929618768328E-2</v>
       </c>
-      <c r="AE5" s="8">
-        <f t="shared" si="0"/>
+      <c r="AE5" s="6">
+        <f t="shared" si="1"/>
         <v>5.865102639296188E-2</v>
       </c>
-      <c r="AF5" s="8">
-        <f t="shared" si="0"/>
+      <c r="AF5" s="6">
+        <f t="shared" si="1"/>
         <v>1.466275659824047E-2</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>44593</v>
       </c>
       <c r="B6" s="1">
@@ -839,75 +4947,75 @@
       <c r="N6" s="1">
         <v>100</v>
       </c>
-      <c r="O6" s="3">
-        <f>SUM(B6:N6)</f>
+      <c r="O6" s="2">
+        <f t="shared" si="0"/>
         <v>3535</v>
       </c>
       <c r="P6" s="1">
         <v>3000</v>
       </c>
-      <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q16" si="1">P6-O6</f>
+      <c r="Q6" s="2">
+        <f t="shared" ref="Q6:Q17" si="2">P6-O6</f>
         <v>-535</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <v>44593</v>
       </c>
-      <c r="T6" s="8">
-        <f t="shared" ref="T6:T16" si="2">B6/$O6</f>
+      <c r="T6" s="6">
+        <f t="shared" ref="T6:T16" si="3">B6/$O6</f>
         <v>0.48090523338048091</v>
       </c>
-      <c r="U6" s="8">
-        <f t="shared" si="0"/>
+      <c r="U6" s="6">
+        <f t="shared" si="1"/>
         <v>1.6973125884016973E-2</v>
       </c>
-      <c r="V6" s="8">
-        <f t="shared" si="0"/>
+      <c r="V6" s="6">
+        <f t="shared" si="1"/>
         <v>2.2630834512022632E-2</v>
       </c>
-      <c r="W6" s="8">
-        <f t="shared" si="0"/>
+      <c r="W6" s="6">
+        <f t="shared" si="1"/>
         <v>4.9504950495049507E-2</v>
       </c>
-      <c r="X6" s="8">
-        <f t="shared" si="0"/>
+      <c r="X6" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="8">
-        <f t="shared" si="0"/>
+      <c r="Y6" s="6">
+        <f t="shared" si="1"/>
         <v>4.2432814710042434E-2</v>
       </c>
-      <c r="Z6" s="8">
-        <f t="shared" si="0"/>
+      <c r="Z6" s="6">
+        <f t="shared" si="1"/>
         <v>0.11315417256011315</v>
       </c>
-      <c r="AA6" s="8">
-        <f t="shared" si="0"/>
+      <c r="AA6" s="6">
+        <f t="shared" si="1"/>
         <v>3.1117397454031116E-2</v>
       </c>
-      <c r="AB6" s="8">
-        <f t="shared" si="0"/>
+      <c r="AB6" s="6">
+        <f t="shared" si="1"/>
         <v>1.6973125884016973E-2</v>
       </c>
-      <c r="AC6" s="8">
-        <f t="shared" si="0"/>
+      <c r="AC6" s="6">
+        <f t="shared" si="1"/>
         <v>0.13154172560113153</v>
       </c>
-      <c r="AD6" s="8">
-        <f t="shared" si="0"/>
+      <c r="AD6" s="6">
+        <f t="shared" si="1"/>
         <v>9.9009900990099011E-3</v>
       </c>
-      <c r="AE6" s="8">
-        <f t="shared" si="0"/>
+      <c r="AE6" s="6">
+        <f t="shared" si="1"/>
         <v>5.6577086280056574E-2</v>
       </c>
-      <c r="AF6" s="8">
-        <f t="shared" si="0"/>
+      <c r="AF6" s="6">
+        <f t="shared" si="1"/>
         <v>2.8288543140028287E-2</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>44621</v>
       </c>
       <c r="B7" s="1">
@@ -949,75 +5057,75 @@
       <c r="N7" s="1">
         <v>150</v>
       </c>
-      <c r="O7" s="3">
-        <f>SUM(B7:N7)</f>
+      <c r="O7" s="2">
+        <f t="shared" si="0"/>
         <v>3575</v>
       </c>
       <c r="P7" s="1">
         <v>2500</v>
       </c>
-      <c r="Q7" s="3">
-        <f t="shared" si="1"/>
+      <c r="Q7" s="2">
+        <f t="shared" si="2"/>
         <v>-1075</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>44621</v>
       </c>
-      <c r="T7" s="8">
-        <f t="shared" si="2"/>
+      <c r="T7" s="6">
+        <f t="shared" si="3"/>
         <v>0.47552447552447552</v>
       </c>
-      <c r="U7" s="8">
-        <f t="shared" si="0"/>
+      <c r="U7" s="6">
+        <f t="shared" si="1"/>
         <v>1.5384615384615385E-2</v>
       </c>
-      <c r="V7" s="8">
-        <f t="shared" si="0"/>
+      <c r="V7" s="6">
+        <f t="shared" si="1"/>
         <v>2.5174825174825177E-2</v>
       </c>
-      <c r="W7" s="8">
-        <f t="shared" si="0"/>
+      <c r="W7" s="6">
+        <f t="shared" si="1"/>
         <v>4.4755244755244755E-2</v>
       </c>
-      <c r="X7" s="8">
-        <f t="shared" si="0"/>
+      <c r="X7" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="8">
-        <f t="shared" si="0"/>
+      <c r="Y7" s="6">
+        <f t="shared" si="1"/>
         <v>4.195804195804196E-2</v>
       </c>
-      <c r="Z7" s="8">
-        <f t="shared" si="0"/>
+      <c r="Z7" s="6">
+        <f t="shared" si="1"/>
         <v>0.11188811188811189</v>
       </c>
-      <c r="AA7" s="8">
-        <f t="shared" si="0"/>
+      <c r="AA7" s="6">
+        <f t="shared" si="1"/>
         <v>3.0769230769230771E-2</v>
       </c>
-      <c r="AB7" s="8">
-        <f t="shared" si="0"/>
+      <c r="AB7" s="6">
+        <f t="shared" si="1"/>
         <v>1.6783216783216783E-2</v>
       </c>
-      <c r="AC7" s="8">
-        <f t="shared" si="0"/>
+      <c r="AC7" s="6">
+        <f t="shared" si="1"/>
         <v>0.13006993006993006</v>
       </c>
-      <c r="AD7" s="8">
-        <f t="shared" si="0"/>
+      <c r="AD7" s="6">
+        <f t="shared" si="1"/>
         <v>9.7902097902097911E-3</v>
       </c>
-      <c r="AE7" s="8">
-        <f t="shared" si="0"/>
+      <c r="AE7" s="6">
+        <f t="shared" si="1"/>
         <v>5.5944055944055944E-2</v>
       </c>
-      <c r="AF7" s="8">
-        <f t="shared" si="0"/>
+      <c r="AF7" s="6">
+        <f t="shared" si="1"/>
         <v>4.195804195804196E-2</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>44652</v>
       </c>
       <c r="B8" s="1">
@@ -1059,75 +5167,75 @@
       <c r="N8" s="1">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <f>SUM(B8:N8)</f>
+      <c r="O8" s="2">
+        <f t="shared" si="0"/>
         <v>3620</v>
       </c>
       <c r="P8" s="1">
         <v>5000</v>
       </c>
-      <c r="Q8" s="3">
-        <f t="shared" si="1"/>
+      <c r="Q8" s="2">
+        <f t="shared" si="2"/>
         <v>1380</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>44652</v>
       </c>
-      <c r="T8" s="8">
-        <f t="shared" si="2"/>
+      <c r="T8" s="6">
+        <f t="shared" si="3"/>
         <v>0.46961325966850831</v>
       </c>
-      <c r="U8" s="8">
-        <f t="shared" si="0"/>
+      <c r="U8" s="6">
+        <f t="shared" si="1"/>
         <v>1.2430939226519336E-2</v>
       </c>
-      <c r="V8" s="8">
-        <f t="shared" si="0"/>
+      <c r="V8" s="6">
+        <f t="shared" si="1"/>
         <v>2.7624309392265192E-2</v>
       </c>
-      <c r="W8" s="8">
-        <f t="shared" si="0"/>
+      <c r="W8" s="6">
+        <f t="shared" si="1"/>
         <v>4.2817679558011051E-2</v>
       </c>
-      <c r="X8" s="8">
-        <f t="shared" si="0"/>
+      <c r="X8" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="8">
-        <f t="shared" si="0"/>
+      <c r="Y8" s="6">
+        <f t="shared" si="1"/>
         <v>4.1436464088397788E-2</v>
       </c>
-      <c r="Z8" s="8">
-        <f t="shared" si="0"/>
+      <c r="Z8" s="6">
+        <f t="shared" si="1"/>
         <v>0.11049723756906077</v>
       </c>
-      <c r="AA8" s="8">
-        <f t="shared" si="0"/>
+      <c r="AA8" s="6">
+        <f t="shared" si="1"/>
         <v>3.0386740331491711E-2</v>
       </c>
-      <c r="AB8" s="8">
-        <f t="shared" si="0"/>
+      <c r="AB8" s="6">
+        <f t="shared" si="1"/>
         <v>1.6574585635359115E-2</v>
       </c>
-      <c r="AC8" s="8">
-        <f t="shared" si="0"/>
+      <c r="AC8" s="6">
+        <f t="shared" si="1"/>
         <v>0.12845303867403315</v>
       </c>
-      <c r="AD8" s="8">
-        <f t="shared" si="0"/>
+      <c r="AD8" s="6">
+        <f t="shared" si="1"/>
         <v>9.6685082872928173E-3</v>
       </c>
-      <c r="AE8" s="8">
-        <f t="shared" si="0"/>
+      <c r="AE8" s="6">
+        <f t="shared" si="1"/>
         <v>5.5248618784530384E-2</v>
       </c>
-      <c r="AF8" s="8">
-        <f t="shared" si="0"/>
+      <c r="AF8" s="6">
+        <f t="shared" si="1"/>
         <v>5.5248618784530384E-2</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>44682</v>
       </c>
       <c r="B9" s="1">
@@ -1169,75 +5277,75 @@
       <c r="N9" s="1">
         <v>30</v>
       </c>
-      <c r="O9" s="3">
-        <f>SUM(B9:N9)</f>
+      <c r="O9" s="2">
+        <f t="shared" si="0"/>
         <v>3465</v>
       </c>
       <c r="P9" s="1">
         <v>6000</v>
       </c>
-      <c r="Q9" s="3">
-        <f t="shared" si="1"/>
+      <c r="Q9" s="2">
+        <f t="shared" si="2"/>
         <v>2535</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>44682</v>
       </c>
-      <c r="T9" s="8">
-        <f t="shared" si="2"/>
+      <c r="T9" s="6">
+        <f t="shared" si="3"/>
         <v>0.49062049062049062</v>
       </c>
-      <c r="U9" s="8">
-        <f t="shared" si="0"/>
+      <c r="U9" s="6">
+        <f t="shared" si="1"/>
         <v>1.0101010101010102E-2</v>
       </c>
-      <c r="V9" s="8">
-        <f t="shared" si="0"/>
+      <c r="V9" s="6">
+        <f t="shared" si="1"/>
         <v>1.0101010101010102E-2</v>
       </c>
-      <c r="W9" s="8">
-        <f t="shared" si="0"/>
+      <c r="W9" s="6">
+        <f t="shared" si="1"/>
         <v>4.1847041847041848E-2</v>
       </c>
-      <c r="X9" s="8">
-        <f t="shared" si="0"/>
+      <c r="X9" s="6">
+        <f t="shared" si="1"/>
         <v>2.886002886002886E-2</v>
       </c>
-      <c r="Y9" s="8">
-        <f t="shared" si="0"/>
+      <c r="Y9" s="6">
+        <f t="shared" si="1"/>
         <v>4.3290043290043288E-2</v>
       </c>
-      <c r="Z9" s="8">
-        <f t="shared" si="0"/>
+      <c r="Z9" s="6">
+        <f t="shared" si="1"/>
         <v>0.11544011544011544</v>
       </c>
-      <c r="AA9" s="8">
-        <f t="shared" si="0"/>
+      <c r="AA9" s="6">
+        <f t="shared" si="1"/>
         <v>3.1746031746031744E-2</v>
       </c>
-      <c r="AB9" s="8">
-        <f t="shared" si="0"/>
+      <c r="AB9" s="6">
+        <f t="shared" si="1"/>
         <v>1.7316017316017316E-2</v>
       </c>
-      <c r="AC9" s="8">
-        <f t="shared" si="0"/>
+      <c r="AC9" s="6">
+        <f t="shared" si="1"/>
         <v>0.13419913419913421</v>
       </c>
-      <c r="AD9" s="8">
-        <f t="shared" si="0"/>
+      <c r="AD9" s="6">
+        <f t="shared" si="1"/>
         <v>1.0101010101010102E-2</v>
       </c>
-      <c r="AE9" s="8">
-        <f t="shared" si="0"/>
+      <c r="AE9" s="6">
+        <f t="shared" si="1"/>
         <v>5.772005772005772E-2</v>
       </c>
-      <c r="AF9" s="8">
-        <f t="shared" si="0"/>
+      <c r="AF9" s="6">
+        <f t="shared" si="1"/>
         <v>8.658008658008658E-3</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>44713</v>
       </c>
       <c r="B10" s="1">
@@ -1279,75 +5387,75 @@
       <c r="N10" s="1">
         <v>75</v>
       </c>
-      <c r="O10" s="3">
-        <f>SUM(B10:N10)</f>
+      <c r="O10" s="2">
+        <f t="shared" si="0"/>
         <v>3357</v>
       </c>
       <c r="P10" s="1">
         <v>2000</v>
       </c>
-      <c r="Q10" s="3">
-        <f t="shared" si="1"/>
+      <c r="Q10" s="2">
+        <f t="shared" si="2"/>
         <v>-1357</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <v>44713</v>
       </c>
-      <c r="T10" s="8">
-        <f t="shared" si="2"/>
+      <c r="T10" s="6">
+        <f t="shared" si="3"/>
         <v>0.50640452785224899</v>
       </c>
-      <c r="U10" s="8">
-        <f t="shared" si="0"/>
+      <c r="U10" s="6">
+        <f t="shared" si="1"/>
         <v>2.0851951146857312E-2</v>
       </c>
-      <c r="V10" s="8">
-        <f t="shared" si="0"/>
+      <c r="V10" s="6">
+        <f t="shared" si="1"/>
         <v>7.4471254095918975E-3</v>
       </c>
-      <c r="W10" s="8">
-        <f t="shared" si="0"/>
+      <c r="W10" s="6">
+        <f t="shared" si="1"/>
         <v>1.9958296097706284E-2</v>
       </c>
-      <c r="X10" s="8">
-        <f t="shared" si="0"/>
+      <c r="X10" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="8">
-        <f t="shared" si="0"/>
+      <c r="Y10" s="6">
+        <f t="shared" si="1"/>
         <v>4.4682752457551385E-2</v>
       </c>
-      <c r="Z10" s="8">
-        <f t="shared" si="0"/>
+      <c r="Z10" s="6">
+        <f t="shared" si="1"/>
         <v>0.11915400655347036</v>
       </c>
-      <c r="AA10" s="8">
-        <f t="shared" si="0"/>
+      <c r="AA10" s="6">
+        <f t="shared" si="1"/>
         <v>3.2767351802204352E-2</v>
       </c>
-      <c r="AB10" s="8">
-        <f t="shared" si="0"/>
+      <c r="AB10" s="6">
+        <f t="shared" si="1"/>
         <v>1.7873100983020553E-2</v>
       </c>
-      <c r="AC10" s="8">
-        <f t="shared" si="0"/>
+      <c r="AC10" s="6">
+        <f t="shared" si="1"/>
         <v>0.13851653261840929</v>
       </c>
-      <c r="AD10" s="8">
-        <f t="shared" si="0"/>
+      <c r="AD10" s="6">
+        <f t="shared" si="1"/>
         <v>1.0425975573428656E-2</v>
       </c>
-      <c r="AE10" s="8">
-        <f t="shared" si="0"/>
+      <c r="AE10" s="6">
+        <f t="shared" si="1"/>
         <v>5.957700327673518E-2</v>
       </c>
-      <c r="AF10" s="8">
-        <f t="shared" si="0"/>
+      <c r="AF10" s="6">
+        <f t="shared" si="1"/>
         <v>2.2341376228775692E-2</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>44743</v>
       </c>
       <c r="B11" s="1">
@@ -1389,75 +5497,75 @@
       <c r="N11" s="1">
         <v>175</v>
       </c>
-      <c r="O11" s="3">
-        <f>SUM(B11:N11)</f>
+      <c r="O11" s="2">
+        <f t="shared" si="0"/>
         <v>3526</v>
       </c>
       <c r="P11" s="1">
         <v>2500</v>
       </c>
-      <c r="Q11" s="3">
-        <f t="shared" si="1"/>
+      <c r="Q11" s="2">
+        <f t="shared" si="2"/>
         <v>-1026</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="5">
         <v>44743</v>
       </c>
-      <c r="T11" s="8">
-        <f t="shared" si="2"/>
+      <c r="T11" s="6">
+        <f t="shared" si="3"/>
         <v>0.4821327283040272</v>
       </c>
-      <c r="U11" s="8">
-        <f t="shared" si="0"/>
+      <c r="U11" s="6">
+        <f t="shared" si="1"/>
         <v>2.5241066364152014E-2</v>
       </c>
-      <c r="V11" s="8">
-        <f t="shared" si="0"/>
+      <c r="V11" s="6">
+        <f t="shared" si="1"/>
         <v>1.559841179807147E-2</v>
       </c>
-      <c r="W11" s="8">
-        <f t="shared" si="0"/>
+      <c r="W11" s="6">
+        <f t="shared" si="1"/>
         <v>2.4673851389676687E-2</v>
       </c>
-      <c r="X11" s="8">
-        <f t="shared" si="0"/>
+      <c r="X11" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="8">
-        <f t="shared" si="0"/>
+      <c r="Y11" s="6">
+        <f t="shared" si="1"/>
         <v>4.254112308564946E-2</v>
       </c>
-      <c r="Z11" s="8">
-        <f t="shared" si="0"/>
+      <c r="Z11" s="6">
+        <f t="shared" si="1"/>
         <v>0.11344299489506524</v>
       </c>
-      <c r="AA11" s="8">
-        <f t="shared" si="0"/>
+      <c r="AA11" s="6">
+        <f t="shared" si="1"/>
         <v>3.1196823596142939E-2</v>
       </c>
-      <c r="AB11" s="8">
-        <f t="shared" si="0"/>
+      <c r="AB11" s="6">
+        <f t="shared" si="1"/>
         <v>1.7016449234259785E-2</v>
       </c>
-      <c r="AC11" s="8">
-        <f t="shared" si="0"/>
+      <c r="AC11" s="6">
+        <f t="shared" si="1"/>
         <v>0.13187748156551332</v>
       </c>
-      <c r="AD11" s="8">
-        <f t="shared" si="0"/>
+      <c r="AD11" s="6">
+        <f t="shared" si="1"/>
         <v>9.9262620533182074E-3</v>
       </c>
-      <c r="AE11" s="8">
-        <f t="shared" si="0"/>
+      <c r="AE11" s="6">
+        <f t="shared" si="1"/>
         <v>5.6721497447532618E-2</v>
       </c>
-      <c r="AF11" s="8">
-        <f t="shared" si="0"/>
+      <c r="AF11" s="6">
+        <f t="shared" si="1"/>
         <v>4.9631310266591039E-2</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>44774</v>
       </c>
       <c r="B12" s="1">
@@ -1499,75 +5607,75 @@
       <c r="N12" s="1">
         <v>65</v>
       </c>
-      <c r="O12" s="3">
-        <f>SUM(B12:N12)</f>
+      <c r="O12" s="2">
+        <f t="shared" si="0"/>
         <v>3454</v>
       </c>
       <c r="P12" s="1">
         <v>1800</v>
       </c>
-      <c r="Q12" s="3">
-        <f t="shared" si="1"/>
+      <c r="Q12" s="2">
+        <f t="shared" si="2"/>
         <v>-1654</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="5">
         <v>44774</v>
       </c>
-      <c r="T12" s="8">
-        <f t="shared" si="2"/>
+      <c r="T12" s="6">
+        <f t="shared" si="3"/>
         <v>0.49218297625940938</v>
       </c>
-      <c r="U12" s="8">
-        <f t="shared" si="0"/>
+      <c r="U12" s="6">
+        <f t="shared" si="1"/>
         <v>2.8662420382165606E-2</v>
       </c>
-      <c r="V12" s="8">
-        <f t="shared" si="0"/>
+      <c r="V12" s="6">
+        <f t="shared" si="1"/>
         <v>1.8818760856977416E-2</v>
       </c>
-      <c r="W12" s="8">
-        <f t="shared" si="0"/>
+      <c r="W12" s="6">
+        <f t="shared" si="1"/>
         <v>2.605674580196873E-2</v>
       </c>
-      <c r="X12" s="8">
-        <f t="shared" si="0"/>
+      <c r="X12" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="8">
-        <f t="shared" si="0"/>
+      <c r="Y12" s="6">
+        <f t="shared" si="1"/>
         <v>4.3427909669947889E-2</v>
       </c>
-      <c r="Z12" s="8">
-        <f t="shared" si="0"/>
+      <c r="Z12" s="6">
+        <f t="shared" si="1"/>
         <v>0.11580775911986103</v>
       </c>
-      <c r="AA12" s="8">
-        <f t="shared" si="0"/>
+      <c r="AA12" s="6">
+        <f t="shared" si="1"/>
         <v>3.1847133757961783E-2</v>
       </c>
-      <c r="AB12" s="8">
-        <f t="shared" si="0"/>
+      <c r="AB12" s="6">
+        <f t="shared" si="1"/>
         <v>1.7371163867979156E-2</v>
       </c>
-      <c r="AC12" s="8">
-        <f t="shared" si="0"/>
+      <c r="AC12" s="6">
+        <f t="shared" si="1"/>
         <v>0.13462651997683844</v>
       </c>
-      <c r="AD12" s="8">
-        <f t="shared" si="0"/>
+      <c r="AD12" s="6">
+        <f t="shared" si="1"/>
         <v>1.4475969889982629E-2</v>
       </c>
-      <c r="AE12" s="8">
-        <f t="shared" si="0"/>
+      <c r="AE12" s="6">
+        <f t="shared" si="1"/>
         <v>5.7903879559930517E-2</v>
       </c>
-      <c r="AF12" s="8">
-        <f t="shared" si="0"/>
+      <c r="AF12" s="6">
+        <f t="shared" si="1"/>
         <v>1.8818760856977416E-2</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>44805</v>
       </c>
       <c r="B13" s="1">
@@ -1609,75 +5717,75 @@
       <c r="N13" s="1">
         <v>77</v>
       </c>
-      <c r="O13" s="3">
-        <f>SUM(B13:N13)</f>
+      <c r="O13" s="2">
+        <f t="shared" si="0"/>
         <v>3411</v>
       </c>
       <c r="P13" s="1">
         <v>5000</v>
       </c>
-      <c r="Q13" s="3">
-        <f t="shared" si="1"/>
+      <c r="Q13" s="2">
+        <f t="shared" si="2"/>
         <v>1589</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="5">
         <v>44805</v>
       </c>
-      <c r="T13" s="8">
-        <f t="shared" si="2"/>
+      <c r="T13" s="6">
+        <f t="shared" si="3"/>
         <v>0.49838756962767516</v>
       </c>
-      <c r="U13" s="8">
-        <f t="shared" si="0"/>
+      <c r="U13" s="6">
+        <f t="shared" si="1"/>
         <v>3.3128114922310173E-2</v>
       </c>
-      <c r="V13" s="8">
-        <f t="shared" si="0"/>
+      <c r="V13" s="6">
+        <f t="shared" si="1"/>
         <v>2.5212547639988273E-2</v>
       </c>
-      <c r="W13" s="8">
-        <f t="shared" si="0"/>
+      <c r="W13" s="6">
+        <f t="shared" si="1"/>
         <v>2.931691586045148E-2</v>
       </c>
-      <c r="X13" s="8">
-        <f t="shared" si="0"/>
+      <c r="X13" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="8">
-        <f t="shared" si="0"/>
+      <c r="Y13" s="6">
+        <f t="shared" si="1"/>
         <v>4.3975373790677223E-2</v>
       </c>
-      <c r="Z13" s="8">
-        <f t="shared" si="0"/>
+      <c r="Z13" s="6">
+        <f t="shared" si="1"/>
         <v>0.11726766344180592</v>
       </c>
-      <c r="AA13" s="8">
-        <f t="shared" si="0"/>
+      <c r="AA13" s="6">
+        <f t="shared" si="1"/>
         <v>3.224860744649663E-2</v>
       </c>
-      <c r="AB13" s="8">
-        <f t="shared" si="0"/>
+      <c r="AB13" s="6">
+        <f t="shared" si="1"/>
         <v>1.759014951627089E-2</v>
       </c>
-      <c r="AC13" s="8">
-        <f t="shared" si="0"/>
+      <c r="AC13" s="6">
+        <f t="shared" si="1"/>
         <v>0.13632365875109939</v>
       </c>
-      <c r="AD13" s="8">
-        <f t="shared" si="0"/>
+      <c r="AD13" s="6">
+        <f t="shared" si="1"/>
         <v>1.465845793022574E-2</v>
       </c>
-      <c r="AE13" s="8">
-        <f t="shared" si="0"/>
+      <c r="AE13" s="6">
+        <f t="shared" si="1"/>
         <v>2.931691586045148E-2</v>
       </c>
-      <c r="AF13" s="8">
-        <f t="shared" si="0"/>
+      <c r="AF13" s="6">
+        <f t="shared" si="1"/>
         <v>2.257402521254764E-2</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>44835</v>
       </c>
       <c r="B14" s="1">
@@ -1719,75 +5827,75 @@
       <c r="N14" s="1">
         <v>82</v>
       </c>
-      <c r="O14" s="3">
-        <f>SUM(B14:N14)</f>
+      <c r="O14" s="2">
+        <f t="shared" si="0"/>
         <v>3388</v>
       </c>
       <c r="P14" s="1">
         <v>4000</v>
       </c>
-      <c r="Q14" s="3">
-        <f t="shared" si="1"/>
+      <c r="Q14" s="2">
+        <f t="shared" si="2"/>
         <v>612</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="5">
         <v>44835</v>
       </c>
-      <c r="T14" s="8">
-        <f t="shared" si="2"/>
+      <c r="T14" s="6">
+        <f t="shared" si="3"/>
         <v>0.50177095631641089</v>
       </c>
-      <c r="U14" s="8">
-        <f t="shared" si="0"/>
+      <c r="U14" s="6">
+        <f t="shared" si="1"/>
         <v>1.3577331759149941E-2</v>
       </c>
-      <c r="V14" s="8">
-        <f t="shared" si="0"/>
+      <c r="V14" s="6">
+        <f t="shared" si="1"/>
         <v>3.2762691853600943E-2</v>
       </c>
-      <c r="W14" s="8">
-        <f t="shared" si="0"/>
+      <c r="W14" s="6">
+        <f t="shared" si="1"/>
         <v>2.1841794569067298E-2</v>
       </c>
-      <c r="X14" s="8">
-        <f t="shared" si="0"/>
+      <c r="X14" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="8">
-        <f t="shared" si="0"/>
+      <c r="Y14" s="6">
+        <f t="shared" si="1"/>
         <v>5.6080283353010622E-2</v>
       </c>
-      <c r="Z14" s="8">
-        <f t="shared" si="0"/>
+      <c r="Z14" s="6">
+        <f t="shared" si="1"/>
         <v>0.1180637544273908</v>
       </c>
-      <c r="AA14" s="8">
-        <f t="shared" si="0"/>
+      <c r="AA14" s="6">
+        <f t="shared" si="1"/>
         <v>3.2467532467532464E-2</v>
       </c>
-      <c r="AB14" s="8">
-        <f t="shared" si="0"/>
+      <c r="AB14" s="6">
+        <f t="shared" si="1"/>
         <v>1.770956316410862E-2</v>
       </c>
-      <c r="AC14" s="8">
-        <f t="shared" si="0"/>
+      <c r="AC14" s="6">
+        <f t="shared" si="1"/>
         <v>0.1372491145218418</v>
       </c>
-      <c r="AD14" s="8">
-        <f t="shared" si="0"/>
+      <c r="AD14" s="6">
+        <f t="shared" si="1"/>
         <v>1.475796930342385E-2</v>
       </c>
-      <c r="AE14" s="8">
-        <f t="shared" si="0"/>
+      <c r="AE14" s="6">
+        <f t="shared" si="1"/>
         <v>2.9515938606847699E-2</v>
       </c>
-      <c r="AF14" s="8">
-        <f t="shared" si="0"/>
+      <c r="AF14" s="6">
+        <f t="shared" si="1"/>
         <v>2.4203069657615112E-2</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>44866</v>
       </c>
       <c r="B15" s="1">
@@ -1829,75 +5937,75 @@
       <c r="N15" s="1">
         <v>90</v>
       </c>
-      <c r="O15" s="3">
-        <f>SUM(B15:N15)</f>
+      <c r="O15" s="2">
+        <f t="shared" si="0"/>
         <v>3346</v>
       </c>
       <c r="P15" s="1">
         <v>3500</v>
       </c>
-      <c r="Q15" s="3">
-        <f t="shared" si="1"/>
+      <c r="Q15" s="2">
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="5">
         <v>44866</v>
       </c>
-      <c r="T15" s="8">
-        <f t="shared" si="2"/>
+      <c r="T15" s="6">
+        <f t="shared" si="3"/>
         <v>0.50806933652121933</v>
       </c>
-      <c r="U15" s="8">
-        <f t="shared" si="0"/>
+      <c r="U15" s="6">
+        <f t="shared" si="1"/>
         <v>1.4943215780035863E-2</v>
       </c>
-      <c r="V15" s="8">
-        <f t="shared" si="0"/>
+      <c r="V15" s="6">
+        <f t="shared" si="1"/>
         <v>1.9426180514046622E-2</v>
       </c>
-      <c r="W15" s="8">
-        <f t="shared" si="0"/>
+      <c r="W15" s="6">
+        <f t="shared" si="1"/>
         <v>1.9725044829647341E-2</v>
       </c>
-      <c r="X15" s="8">
-        <f t="shared" si="0"/>
+      <c r="X15" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="8">
-        <f t="shared" si="0"/>
+      <c r="Y15" s="6">
+        <f t="shared" si="1"/>
         <v>5.6784219964136282E-2</v>
       </c>
-      <c r="Z15" s="8">
-        <f t="shared" si="0"/>
+      <c r="Z15" s="6">
+        <f t="shared" si="1"/>
         <v>0.11954572624028691</v>
       </c>
-      <c r="AA15" s="8">
-        <f t="shared" si="0"/>
+      <c r="AA15" s="6">
+        <f t="shared" si="1"/>
         <v>3.2875074716078902E-2</v>
       </c>
-      <c r="AB15" s="8">
-        <f t="shared" si="0"/>
+      <c r="AB15" s="6">
+        <f t="shared" si="1"/>
         <v>1.7931858936043037E-2</v>
       </c>
-      <c r="AC15" s="8">
-        <f t="shared" si="0"/>
+      <c r="AC15" s="6">
+        <f t="shared" si="1"/>
         <v>0.13897190675433355</v>
       </c>
-      <c r="AD15" s="8">
-        <f t="shared" si="0"/>
+      <c r="AD15" s="6">
+        <f t="shared" si="1"/>
         <v>1.4943215780035863E-2</v>
       </c>
-      <c r="AE15" s="8">
-        <f t="shared" si="0"/>
+      <c r="AE15" s="6">
+        <f t="shared" si="1"/>
         <v>2.9886431560071727E-2</v>
       </c>
-      <c r="AF15" s="8">
-        <f t="shared" si="0"/>
+      <c r="AF15" s="6">
+        <f t="shared" si="1"/>
         <v>2.6897788404064555E-2</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>44896</v>
       </c>
       <c r="B16" s="1">
@@ -1939,812 +6047,881 @@
       <c r="N16" s="1">
         <v>150</v>
       </c>
-      <c r="O16" s="3">
-        <f>SUM(B16:N16)</f>
+      <c r="O16" s="2">
+        <f t="shared" si="0"/>
         <v>3405</v>
       </c>
       <c r="P16" s="1">
         <v>3400</v>
       </c>
-      <c r="Q16" s="3">
-        <f t="shared" si="1"/>
+      <c r="Q16" s="2">
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="5">
         <v>44896</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="6">
+        <f t="shared" si="3"/>
+        <v>0.49926578560939794</v>
+      </c>
+      <c r="U16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7621145374449341E-2</v>
+      </c>
+      <c r="V16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3215859030837005E-2</v>
+      </c>
+      <c r="W16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0279001468428781E-2</v>
+      </c>
+      <c r="X16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="6">
+        <f t="shared" si="1"/>
+        <v>5.5800293685756244E-2</v>
+      </c>
+      <c r="Z16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.11747430249632893</v>
+      </c>
+      <c r="AA16" s="6">
+        <f t="shared" si="1"/>
+        <v>4.405286343612335E-2</v>
+      </c>
+      <c r="AB16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7621145374449341E-2</v>
+      </c>
+      <c r="AC16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.13656387665198239</v>
+      </c>
+      <c r="AD16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4684287812041116E-2</v>
+      </c>
+      <c r="AE16" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9368575624082231E-2</v>
+      </c>
+      <c r="AF16" s="6">
+        <f t="shared" si="1"/>
+        <v>4.405286343612335E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1700</v>
+      </c>
+      <c r="C17" s="2">
+        <f>AVERAGE(C5:C16)</f>
+        <v>64.333333333333329</v>
+      </c>
+      <c r="D17" s="2">
+        <f>AVERAGE(D5:D16)</f>
+        <v>66.416666666666671</v>
+      </c>
+      <c r="E17" s="2">
+        <f>AVERAGE(E5:E16)</f>
+        <v>108.66666666666667</v>
+      </c>
+      <c r="F17" s="2">
+        <f>AVERAGE(F5:F16)</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" ref="G17:P17" si="4">AVERAGE(G5:G16)</f>
+        <v>160</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="4"/>
+        <v>113.33333333333333</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="4"/>
+        <v>465</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="4"/>
+        <v>41.25</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="4"/>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="4"/>
+        <v>103.66666666666667</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="4"/>
+        <v>3457.6666666666665</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="4"/>
+        <v>3558.3333333333335</v>
+      </c>
+      <c r="Q17" s="2">
         <f t="shared" si="2"/>
-        <v>0.49926578560939794</v>
-      </c>
-      <c r="U16" s="8">
-        <f t="shared" si="0"/>
-        <v>1.7621145374449341E-2</v>
-      </c>
-      <c r="V16" s="8">
-        <f t="shared" si="0"/>
-        <v>1.3215859030837005E-2</v>
-      </c>
-      <c r="W16" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0279001468428781E-2</v>
-      </c>
-      <c r="X16" s="8">
-        <f t="shared" si="0"/>
+        <v>100.66666666666697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="46" x14ac:dyDescent="1">
+      <c r="V20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+    </row>
+    <row r="22" spans="1:32" ht="70.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="9"/>
+      <c r="S22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Y16" s="8">
-        <f t="shared" si="0"/>
-        <v>5.5800293685756244E-2</v>
-      </c>
-      <c r="Z16" s="8">
-        <f t="shared" si="0"/>
-        <v>0.11747430249632893</v>
-      </c>
-      <c r="AA16" s="8">
-        <f t="shared" si="0"/>
-        <v>4.405286343612335E-2</v>
-      </c>
-      <c r="AB16" s="8">
-        <f t="shared" si="0"/>
-        <v>1.7621145374449341E-2</v>
-      </c>
-      <c r="AC16" s="8">
-        <f t="shared" si="0"/>
-        <v>0.13656387665198239</v>
-      </c>
-      <c r="AD16" s="8">
-        <f t="shared" si="0"/>
-        <v>1.4684287812041116E-2</v>
-      </c>
-      <c r="AE16" s="8">
-        <f t="shared" si="0"/>
-        <v>2.9368575624082231E-2</v>
-      </c>
-      <c r="AF16" s="8">
-        <f t="shared" si="0"/>
-        <v>4.405286343612335E-2</v>
+      <c r="U22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF22" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="20" spans="19:32" ht="46" x14ac:dyDescent="1">
-      <c r="V20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-    </row>
-    <row r="22" spans="19:32" ht="70.5" x14ac:dyDescent="0.35">
-      <c r="S22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="V22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="W22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="X22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="19:32" x14ac:dyDescent="0.35">
-      <c r="S23" s="6">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="S23" s="5">
         <v>44562</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="6">
         <f>B5/$P5</f>
         <v>0.42499999999999999</v>
       </c>
-      <c r="U23" s="8">
-        <f t="shared" ref="U23:AF34" si="3">C5/$P5</f>
+      <c r="U23" s="6">
+        <f t="shared" ref="U23:AF34" si="5">C5/$P5</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="V23" s="8">
-        <f t="shared" si="3"/>
+      <c r="V23" s="6">
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="W23" s="8">
-        <f t="shared" si="3"/>
+      <c r="W23" s="6">
+        <f t="shared" si="5"/>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="X23" s="8">
-        <f t="shared" si="3"/>
+      <c r="X23" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="8">
-        <f t="shared" si="3"/>
+      <c r="Y23" s="6">
+        <f t="shared" si="5"/>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="Z23" s="8">
-        <f t="shared" si="3"/>
+      <c r="Z23" s="6">
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="AA23" s="8">
-        <f t="shared" si="3"/>
+      <c r="AA23" s="6">
+        <f t="shared" si="5"/>
         <v>2.75E-2</v>
       </c>
-      <c r="AB23" s="8">
-        <f t="shared" si="3"/>
+      <c r="AB23" s="6">
+        <f t="shared" si="5"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AC23" s="8">
-        <f t="shared" si="3"/>
+      <c r="AC23" s="6">
+        <f t="shared" si="5"/>
         <v>0.11625000000000001</v>
       </c>
-      <c r="AD23" s="8">
-        <f t="shared" si="3"/>
+      <c r="AD23" s="6">
+        <f t="shared" si="5"/>
         <v>8.7500000000000008E-3</v>
       </c>
-      <c r="AE23" s="8">
-        <f t="shared" si="3"/>
+      <c r="AE23" s="6">
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
-      <c r="AF23" s="8">
-        <f t="shared" si="3"/>
+      <c r="AF23" s="6">
+        <f t="shared" si="5"/>
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="19:32" x14ac:dyDescent="0.35">
-      <c r="S24" s="6">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="S24" s="5">
         <v>44593</v>
       </c>
-      <c r="T24" s="8">
-        <f t="shared" ref="T24:T34" si="4">B6/$P6</f>
+      <c r="T24" s="6">
+        <f t="shared" ref="T24:T34" si="6">B6/$P6</f>
         <v>0.56666666666666665</v>
       </c>
-      <c r="U24" s="8">
-        <f t="shared" si="3"/>
+      <c r="U24" s="6">
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
-      <c r="V24" s="8">
-        <f t="shared" si="3"/>
+      <c r="V24" s="6">
+        <f t="shared" si="5"/>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="W24" s="8">
-        <f t="shared" si="3"/>
+      <c r="W24" s="6">
+        <f t="shared" si="5"/>
         <v>5.8333333333333334E-2</v>
       </c>
-      <c r="X24" s="8">
-        <f t="shared" si="3"/>
+      <c r="X24" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="8">
-        <f t="shared" si="3"/>
+      <c r="Y24" s="6">
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
-      <c r="Z24" s="8">
-        <f t="shared" si="3"/>
+      <c r="Z24" s="6">
+        <f t="shared" si="5"/>
         <v>0.13333333333333333</v>
       </c>
-      <c r="AA24" s="8">
-        <f t="shared" si="3"/>
+      <c r="AA24" s="6">
+        <f t="shared" si="5"/>
         <v>3.6666666666666667E-2</v>
       </c>
-      <c r="AB24" s="8">
-        <f t="shared" si="3"/>
+      <c r="AB24" s="6">
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
-      <c r="AC24" s="8">
-        <f t="shared" si="3"/>
+      <c r="AC24" s="6">
+        <f t="shared" si="5"/>
         <v>0.155</v>
       </c>
-      <c r="AD24" s="8">
-        <f t="shared" si="3"/>
+      <c r="AD24" s="6">
+        <f t="shared" si="5"/>
         <v>1.1666666666666667E-2</v>
       </c>
-      <c r="AE24" s="8">
-        <f t="shared" si="3"/>
+      <c r="AE24" s="6">
+        <f t="shared" si="5"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="AF24" s="8">
-        <f t="shared" si="3"/>
+      <c r="AF24" s="6">
+        <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="25" spans="19:32" x14ac:dyDescent="0.35">
-      <c r="S25" s="6">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="S25" s="5">
         <v>44621</v>
       </c>
-      <c r="T25" s="8">
-        <f t="shared" si="4"/>
+      <c r="T25" s="6">
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
-      <c r="U25" s="8">
-        <f t="shared" si="3"/>
+      <c r="U25" s="6">
+        <f t="shared" si="5"/>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="V25" s="8">
-        <f t="shared" si="3"/>
+      <c r="V25" s="6">
+        <f t="shared" si="5"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="W25" s="8">
-        <f t="shared" si="3"/>
+      <c r="W25" s="6">
+        <f t="shared" si="5"/>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="X25" s="8">
-        <f t="shared" si="3"/>
+      <c r="X25" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="8">
-        <f t="shared" si="3"/>
+      <c r="Y25" s="6">
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
-      <c r="Z25" s="8">
-        <f t="shared" si="3"/>
+      <c r="Z25" s="6">
+        <f t="shared" si="5"/>
         <v>0.16</v>
       </c>
-      <c r="AA25" s="8">
-        <f t="shared" si="3"/>
+      <c r="AA25" s="6">
+        <f t="shared" si="5"/>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="AB25" s="8">
-        <f t="shared" si="3"/>
+      <c r="AB25" s="6">
+        <f t="shared" si="5"/>
         <v>2.4E-2</v>
       </c>
-      <c r="AC25" s="8">
-        <f t="shared" si="3"/>
+      <c r="AC25" s="6">
+        <f t="shared" si="5"/>
         <v>0.186</v>
       </c>
-      <c r="AD25" s="8">
-        <f t="shared" si="3"/>
+      <c r="AD25" s="6">
+        <f t="shared" si="5"/>
         <v>1.4E-2</v>
       </c>
-      <c r="AE25" s="8">
-        <f t="shared" si="3"/>
+      <c r="AE25" s="6">
+        <f t="shared" si="5"/>
         <v>0.08</v>
       </c>
-      <c r="AF25" s="8">
-        <f t="shared" si="3"/>
+      <c r="AF25" s="6">
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="19:32" x14ac:dyDescent="0.35">
-      <c r="S26" s="6">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="S26" s="5">
         <v>44652</v>
       </c>
-      <c r="T26" s="8">
-        <f t="shared" si="4"/>
+      <c r="T26" s="6">
+        <f t="shared" si="6"/>
         <v>0.34</v>
       </c>
-      <c r="U26" s="8">
-        <f t="shared" si="3"/>
+      <c r="U26" s="6">
+        <f t="shared" si="5"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="V26" s="8">
-        <f t="shared" si="3"/>
+      <c r="V26" s="6">
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
-      <c r="W26" s="8">
-        <f t="shared" si="3"/>
+      <c r="W26" s="6">
+        <f t="shared" si="5"/>
         <v>3.1E-2</v>
       </c>
-      <c r="X26" s="8">
-        <f t="shared" si="3"/>
+      <c r="X26" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="8">
-        <f t="shared" si="3"/>
+      <c r="Y26" s="6">
+        <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="Z26" s="8">
-        <f t="shared" si="3"/>
+      <c r="Z26" s="6">
+        <f t="shared" si="5"/>
         <v>0.08</v>
       </c>
-      <c r="AA26" s="8">
-        <f t="shared" si="3"/>
+      <c r="AA26" s="6">
+        <f t="shared" si="5"/>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AB26" s="8">
-        <f t="shared" si="3"/>
+      <c r="AB26" s="6">
+        <f t="shared" si="5"/>
         <v>1.2E-2</v>
       </c>
-      <c r="AC26" s="8">
-        <f t="shared" si="3"/>
+      <c r="AC26" s="6">
+        <f t="shared" si="5"/>
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="AD26" s="8">
-        <f t="shared" si="3"/>
+      <c r="AD26" s="6">
+        <f t="shared" si="5"/>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AE26" s="8">
-        <f t="shared" si="3"/>
+      <c r="AE26" s="6">
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
-      <c r="AF26" s="8">
-        <f t="shared" si="3"/>
+      <c r="AF26" s="6">
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="19:32" x14ac:dyDescent="0.35">
-      <c r="S27" s="6">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="S27" s="5">
         <v>44682</v>
       </c>
-      <c r="T27" s="8">
-        <f t="shared" si="4"/>
+      <c r="T27" s="6">
+        <f t="shared" si="6"/>
         <v>0.28333333333333333</v>
       </c>
-      <c r="U27" s="8">
-        <f t="shared" si="3"/>
+      <c r="U27" s="6">
+        <f t="shared" si="5"/>
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="V27" s="8">
-        <f t="shared" si="3"/>
+      <c r="V27" s="6">
+        <f t="shared" si="5"/>
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="W27" s="8">
-        <f t="shared" si="3"/>
+      <c r="W27" s="6">
+        <f t="shared" si="5"/>
         <v>2.4166666666666666E-2</v>
       </c>
-      <c r="X27" s="8">
-        <f t="shared" si="3"/>
+      <c r="X27" s="6">
+        <f t="shared" si="5"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="Y27" s="8">
-        <f t="shared" si="3"/>
+      <c r="Y27" s="6">
+        <f t="shared" si="5"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Z27" s="8">
-        <f t="shared" si="3"/>
+      <c r="Z27" s="6">
+        <f t="shared" si="5"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="AA27" s="8">
-        <f t="shared" si="3"/>
+      <c r="AA27" s="6">
+        <f t="shared" si="5"/>
         <v>1.8333333333333333E-2</v>
       </c>
-      <c r="AB27" s="8">
-        <f t="shared" si="3"/>
+      <c r="AB27" s="6">
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="AC27" s="8">
-        <f t="shared" si="3"/>
+      <c r="AC27" s="6">
+        <f t="shared" si="5"/>
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AD27" s="8">
-        <f t="shared" si="3"/>
+      <c r="AD27" s="6">
+        <f t="shared" si="5"/>
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="AE27" s="8">
-        <f t="shared" si="3"/>
+      <c r="AE27" s="6">
+        <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="AF27" s="8">
-        <f t="shared" si="3"/>
+      <c r="AF27" s="6">
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="19:32" x14ac:dyDescent="0.35">
-      <c r="S28" s="6">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="S28" s="5">
         <v>44713</v>
       </c>
-      <c r="T28" s="8">
-        <f t="shared" si="4"/>
+      <c r="T28" s="6">
+        <f t="shared" si="6"/>
         <v>0.85</v>
       </c>
-      <c r="U28" s="8">
-        <f t="shared" si="3"/>
+      <c r="U28" s="6">
+        <f t="shared" si="5"/>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V28" s="8">
-        <f t="shared" si="3"/>
+      <c r="V28" s="6">
+        <f t="shared" si="5"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="W28" s="8">
-        <f t="shared" si="3"/>
+      <c r="W28" s="6">
+        <f t="shared" si="5"/>
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="X28" s="8">
-        <f t="shared" si="3"/>
+      <c r="X28" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="8">
-        <f t="shared" si="3"/>
+      <c r="Y28" s="6">
+        <f t="shared" si="5"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z28" s="8">
-        <f t="shared" si="3"/>
+      <c r="Z28" s="6">
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="AA28" s="8">
-        <f t="shared" si="3"/>
+      <c r="AA28" s="6">
+        <f t="shared" si="5"/>
         <v>5.5E-2</v>
       </c>
-      <c r="AB28" s="8">
-        <f t="shared" si="3"/>
+      <c r="AB28" s="6">
+        <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="AC28" s="8">
-        <f t="shared" si="3"/>
+      <c r="AC28" s="6">
+        <f t="shared" si="5"/>
         <v>0.23250000000000001</v>
       </c>
-      <c r="AD28" s="8">
-        <f t="shared" si="3"/>
+      <c r="AD28" s="6">
+        <f t="shared" si="5"/>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="AE28" s="8">
-        <f t="shared" si="3"/>
+      <c r="AE28" s="6">
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="AF28" s="8">
-        <f t="shared" si="3"/>
+      <c r="AF28" s="6">
+        <f t="shared" si="5"/>
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="19:32" x14ac:dyDescent="0.35">
-      <c r="S29" s="6">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="S29" s="5">
         <v>44743</v>
       </c>
-      <c r="T29" s="8">
-        <f t="shared" si="4"/>
+      <c r="T29" s="6">
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
-      <c r="U29" s="8">
-        <f t="shared" si="3"/>
+      <c r="U29" s="6">
+        <f t="shared" si="5"/>
         <v>3.56E-2</v>
       </c>
-      <c r="V29" s="8">
-        <f t="shared" si="3"/>
+      <c r="V29" s="6">
+        <f t="shared" si="5"/>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="W29" s="8">
-        <f t="shared" si="3"/>
+      <c r="W29" s="6">
+        <f t="shared" si="5"/>
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="X29" s="8">
-        <f t="shared" si="3"/>
+      <c r="X29" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="8">
-        <f t="shared" si="3"/>
+      <c r="Y29" s="6">
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
-      <c r="Z29" s="8">
-        <f t="shared" si="3"/>
+      <c r="Z29" s="6">
+        <f t="shared" si="5"/>
         <v>0.16</v>
       </c>
-      <c r="AA29" s="8">
-        <f t="shared" si="3"/>
+      <c r="AA29" s="6">
+        <f t="shared" si="5"/>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="AB29" s="8">
-        <f t="shared" si="3"/>
+      <c r="AB29" s="6">
+        <f t="shared" si="5"/>
         <v>2.4E-2</v>
       </c>
-      <c r="AC29" s="8">
-        <f t="shared" si="3"/>
+      <c r="AC29" s="6">
+        <f t="shared" si="5"/>
         <v>0.186</v>
       </c>
-      <c r="AD29" s="8">
-        <f t="shared" si="3"/>
+      <c r="AD29" s="6">
+        <f t="shared" si="5"/>
         <v>1.4E-2</v>
       </c>
-      <c r="AE29" s="8">
-        <f t="shared" si="3"/>
+      <c r="AE29" s="6">
+        <f t="shared" si="5"/>
         <v>0.08</v>
       </c>
-      <c r="AF29" s="8">
-        <f t="shared" si="3"/>
+      <c r="AF29" s="6">
+        <f t="shared" si="5"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="30" spans="19:32" x14ac:dyDescent="0.35">
-      <c r="S30" s="6">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="S30" s="5">
         <v>44774</v>
       </c>
-      <c r="T30" s="8">
-        <f t="shared" si="4"/>
+      <c r="T30" s="6">
+        <f t="shared" si="6"/>
         <v>0.94444444444444442</v>
       </c>
-      <c r="U30" s="8">
-        <f t="shared" si="3"/>
+      <c r="U30" s="6">
+        <f t="shared" si="5"/>
         <v>5.5E-2</v>
       </c>
-      <c r="V30" s="8">
-        <f t="shared" si="3"/>
+      <c r="V30" s="6">
+        <f t="shared" si="5"/>
         <v>3.6111111111111108E-2</v>
       </c>
-      <c r="W30" s="8">
-        <f t="shared" si="3"/>
+      <c r="W30" s="6">
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
-      <c r="X30" s="8">
-        <f t="shared" si="3"/>
+      <c r="X30" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="8">
-        <f t="shared" si="3"/>
+      <c r="Y30" s="6">
+        <f t="shared" si="5"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="Z30" s="8">
-        <f t="shared" si="3"/>
+      <c r="Z30" s="6">
+        <f t="shared" si="5"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="AA30" s="8">
-        <f t="shared" si="3"/>
+      <c r="AA30" s="6">
+        <f t="shared" si="5"/>
         <v>6.1111111111111109E-2</v>
       </c>
-      <c r="AB30" s="8">
-        <f t="shared" si="3"/>
+      <c r="AB30" s="6">
+        <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="AC30" s="8">
-        <f t="shared" si="3"/>
+      <c r="AC30" s="6">
+        <f t="shared" si="5"/>
         <v>0.25833333333333336</v>
       </c>
-      <c r="AD30" s="8">
-        <f t="shared" si="3"/>
+      <c r="AD30" s="6">
+        <f t="shared" si="5"/>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="AE30" s="8">
-        <f t="shared" si="3"/>
+      <c r="AE30" s="6">
+        <f t="shared" si="5"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="AF30" s="8">
-        <f t="shared" si="3"/>
+      <c r="AF30" s="6">
+        <f t="shared" si="5"/>
         <v>3.6111111111111108E-2</v>
       </c>
     </row>
-    <row r="31" spans="19:32" x14ac:dyDescent="0.35">
-      <c r="S31" s="6">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="S31" s="5">
         <v>44805</v>
       </c>
-      <c r="T31" s="8">
-        <f t="shared" si="4"/>
+      <c r="T31" s="6">
+        <f t="shared" si="6"/>
         <v>0.34</v>
       </c>
-      <c r="U31" s="8">
-        <f t="shared" si="3"/>
+      <c r="U31" s="6">
+        <f t="shared" si="5"/>
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="V31" s="8">
-        <f t="shared" si="3"/>
+      <c r="V31" s="6">
+        <f t="shared" si="5"/>
         <v>1.72E-2</v>
       </c>
-      <c r="W31" s="8">
-        <f t="shared" si="3"/>
+      <c r="W31" s="6">
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
-      <c r="X31" s="8">
-        <f t="shared" si="3"/>
+      <c r="X31" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="8">
-        <f t="shared" si="3"/>
+      <c r="Y31" s="6">
+        <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="Z31" s="8">
-        <f t="shared" si="3"/>
+      <c r="Z31" s="6">
+        <f t="shared" si="5"/>
         <v>0.08</v>
       </c>
-      <c r="AA31" s="8">
-        <f t="shared" si="3"/>
+      <c r="AA31" s="6">
+        <f t="shared" si="5"/>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AB31" s="8">
-        <f t="shared" si="3"/>
+      <c r="AB31" s="6">
+        <f t="shared" si="5"/>
         <v>1.2E-2</v>
       </c>
-      <c r="AC31" s="8">
-        <f t="shared" si="3"/>
+      <c r="AC31" s="6">
+        <f t="shared" si="5"/>
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="AD31" s="8">
-        <f t="shared" si="3"/>
+      <c r="AD31" s="6">
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="AE31" s="8">
-        <f t="shared" si="3"/>
+      <c r="AE31" s="6">
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
-      <c r="AF31" s="8">
-        <f t="shared" si="3"/>
+      <c r="AF31" s="6">
+        <f t="shared" si="5"/>
         <v>1.54E-2</v>
       </c>
     </row>
-    <row r="32" spans="19:32" x14ac:dyDescent="0.35">
-      <c r="S32" s="6">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="S32" s="5">
         <v>44835</v>
       </c>
-      <c r="T32" s="8">
-        <f t="shared" si="4"/>
+      <c r="T32" s="6">
+        <f t="shared" si="6"/>
         <v>0.42499999999999999</v>
       </c>
-      <c r="U32" s="8">
-        <f t="shared" si="3"/>
+      <c r="U32" s="6">
+        <f t="shared" si="5"/>
         <v>1.15E-2</v>
       </c>
-      <c r="V32" s="8">
-        <f t="shared" si="3"/>
+      <c r="V32" s="6">
+        <f t="shared" si="5"/>
         <v>2.775E-2</v>
       </c>
-      <c r="W32" s="8">
-        <f t="shared" si="3"/>
+      <c r="W32" s="6">
+        <f t="shared" si="5"/>
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="X32" s="8">
-        <f t="shared" si="3"/>
+      <c r="X32" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="8">
-        <f t="shared" si="3"/>
+      <c r="Y32" s="6">
+        <f t="shared" si="5"/>
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="Z32" s="8">
-        <f t="shared" si="3"/>
+      <c r="Z32" s="6">
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="AA32" s="8">
-        <f t="shared" si="3"/>
+      <c r="AA32" s="6">
+        <f t="shared" si="5"/>
         <v>2.75E-2</v>
       </c>
-      <c r="AB32" s="8">
-        <f t="shared" si="3"/>
+      <c r="AB32" s="6">
+        <f t="shared" si="5"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AC32" s="8">
-        <f t="shared" si="3"/>
+      <c r="AC32" s="6">
+        <f t="shared" si="5"/>
         <v>0.11625000000000001</v>
       </c>
-      <c r="AD32" s="8">
-        <f t="shared" si="3"/>
+      <c r="AD32" s="6">
+        <f t="shared" si="5"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AE32" s="8">
-        <f t="shared" si="3"/>
+      <c r="AE32" s="6">
+        <f t="shared" si="5"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF32" s="8">
-        <f t="shared" si="3"/>
+      <c r="AF32" s="6">
+        <f t="shared" si="5"/>
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="19:32" x14ac:dyDescent="0.35">
-      <c r="S33" s="6">
+      <c r="S33" s="5">
         <v>44866</v>
       </c>
-      <c r="T33" s="8">
-        <f t="shared" si="4"/>
+      <c r="T33" s="6">
+        <f t="shared" si="6"/>
         <v>0.48571428571428571</v>
       </c>
-      <c r="U33" s="8">
-        <f t="shared" si="3"/>
+      <c r="U33" s="6">
+        <f t="shared" si="5"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="V33" s="8">
-        <f t="shared" si="3"/>
+      <c r="V33" s="6">
+        <f t="shared" si="5"/>
         <v>1.8571428571428572E-2</v>
       </c>
-      <c r="W33" s="8">
-        <f t="shared" si="3"/>
+      <c r="W33" s="6">
+        <f t="shared" si="5"/>
         <v>1.8857142857142857E-2</v>
       </c>
-      <c r="X33" s="8">
-        <f t="shared" si="3"/>
+      <c r="X33" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="8">
-        <f t="shared" si="3"/>
+      <c r="Y33" s="6">
+        <f t="shared" si="5"/>
         <v>5.4285714285714284E-2</v>
       </c>
-      <c r="Z33" s="8">
-        <f t="shared" si="3"/>
+      <c r="Z33" s="6">
+        <f t="shared" si="5"/>
         <v>0.11428571428571428</v>
       </c>
-      <c r="AA33" s="8">
-        <f t="shared" si="3"/>
+      <c r="AA33" s="6">
+        <f t="shared" si="5"/>
         <v>3.1428571428571431E-2</v>
       </c>
-      <c r="AB33" s="8">
-        <f t="shared" si="3"/>
+      <c r="AB33" s="6">
+        <f t="shared" si="5"/>
         <v>1.7142857142857144E-2</v>
       </c>
-      <c r="AC33" s="8">
-        <f t="shared" si="3"/>
+      <c r="AC33" s="6">
+        <f t="shared" si="5"/>
         <v>0.13285714285714287</v>
       </c>
-      <c r="AD33" s="8">
-        <f t="shared" si="3"/>
+      <c r="AD33" s="6">
+        <f t="shared" si="5"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="AE33" s="8">
-        <f t="shared" si="3"/>
+      <c r="AE33" s="6">
+        <f t="shared" si="5"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="AF33" s="8">
-        <f t="shared" si="3"/>
+      <c r="AF33" s="6">
+        <f t="shared" si="5"/>
         <v>2.5714285714285714E-2</v>
       </c>
     </row>
     <row r="34" spans="19:32" x14ac:dyDescent="0.35">
-      <c r="S34" s="6">
+      <c r="S34" s="5">
         <v>44896</v>
       </c>
-      <c r="T34" s="8">
-        <f t="shared" si="4"/>
+      <c r="T34" s="6">
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="U34" s="8">
-        <f t="shared" si="3"/>
+      <c r="U34" s="6">
+        <f t="shared" si="5"/>
         <v>1.7647058823529412E-2</v>
       </c>
-      <c r="V34" s="8">
-        <f t="shared" si="3"/>
+      <c r="V34" s="6">
+        <f t="shared" si="5"/>
         <v>1.3235294117647059E-2</v>
       </c>
-      <c r="W34" s="8">
-        <f t="shared" si="3"/>
+      <c r="W34" s="6">
+        <f t="shared" si="5"/>
         <v>1.0294117647058823E-2</v>
       </c>
-      <c r="X34" s="8">
-        <f t="shared" si="3"/>
+      <c r="X34" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="8">
-        <f t="shared" si="3"/>
+      <c r="Y34" s="6">
+        <f t="shared" si="5"/>
         <v>5.5882352941176473E-2</v>
       </c>
-      <c r="Z34" s="8">
-        <f t="shared" si="3"/>
+      <c r="Z34" s="6">
+        <f t="shared" si="5"/>
         <v>0.11764705882352941</v>
       </c>
-      <c r="AA34" s="8">
-        <f t="shared" si="3"/>
+      <c r="AA34" s="6">
+        <f t="shared" si="5"/>
         <v>4.4117647058823532E-2</v>
       </c>
-      <c r="AB34" s="8">
-        <f t="shared" si="3"/>
+      <c r="AB34" s="6">
+        <f t="shared" si="5"/>
         <v>1.7647058823529412E-2</v>
       </c>
-      <c r="AC34" s="8">
-        <f t="shared" si="3"/>
+      <c r="AC34" s="6">
+        <f t="shared" si="5"/>
         <v>0.13676470588235295</v>
       </c>
-      <c r="AD34" s="8">
-        <f t="shared" si="3"/>
+      <c r="AD34" s="6">
+        <f t="shared" si="5"/>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="AE34" s="8">
-        <f t="shared" si="3"/>
+      <c r="AE34" s="6">
+        <f t="shared" si="5"/>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="AF34" s="8">
-        <f t="shared" si="3"/>
+      <c r="AF34" s="6">
+        <f t="shared" si="5"/>
         <v>4.4117647058823532E-2</v>
       </c>
     </row>
@@ -2754,7 +6931,7 @@
     <mergeCell ref="U1:AE1"/>
     <mergeCell ref="V20:AC20"/>
   </mergeCells>
-  <conditionalFormatting sqref="Q5:Q16">
+  <conditionalFormatting sqref="Q5:Q17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -2764,4 +6941,19 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4C8CE2-A554-4C65-BDDE-5541FBA04783}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>